--- a/week_2/csv_annotated-by-Sirisha/mortgage_rates_CBC_article_full_60_to_annotate.xlsx
+++ b/week_2/csv_annotated-by-Sirisha/mortgage_rates_CBC_article_full_60_to_annotate.xlsx
@@ -572,7 +572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -584,13 +584,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,8 +614,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -622,9 +633,7 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -634,8 +643,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -644,7 +675,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,41 +686,97 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,24 +787,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
@@ -729,45 +799,57 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,8 +868,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -806,10 +890,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -986,11 +1070,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -999,27 +1086,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -1276,10 +1363,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1570,7 +1657,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1851,880 +1938,943 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="54.2109" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.4219" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7578" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.4531" style="1" customWidth="1"/>
-    <col min="5" max="256" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.35156" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="44.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>-1</v>
       </c>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="44.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="13">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="44.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="13">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="44.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C6" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <v>1</v>
       </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" ht="44.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="A7" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="15">
         <v>0</v>
       </c>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="A8" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="B8" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C8" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="15">
         <v>1</v>
       </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" ht="44.05" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="A9" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="B9" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="C9" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="15">
         <v>0</v>
       </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" t="s" s="9">
+      <c r="A10" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="B10" t="s" s="13">
         <v>26</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" t="s" s="14">
         <v>27</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="15">
         <v>0</v>
       </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" ht="44.05" customHeight="1">
-      <c r="A11" t="s" s="9">
+      <c r="A11" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="B11" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" t="s" s="14">
         <v>30</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="15">
         <v>0</v>
       </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" ht="44.05" customHeight="1">
-      <c r="A12" t="s" s="9">
+      <c r="A12" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="B12" t="s" s="10">
+      <c r="B12" t="s" s="13">
         <v>32</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="C12" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="15">
         <v>0</v>
       </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" ht="44.05" customHeight="1">
-      <c r="A13" t="s" s="9">
+      <c r="A13" t="s" s="12">
         <v>34</v>
       </c>
-      <c r="B13" t="s" s="10">
+      <c r="B13" t="s" s="13">
         <v>35</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" t="s" s="14">
         <v>36</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="15">
         <v>0</v>
       </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" ht="44.05" customHeight="1">
-      <c r="A14" t="s" s="9">
+      <c r="A14" t="s" s="12">
         <v>37</v>
       </c>
-      <c r="B14" t="s" s="10">
+      <c r="B14" t="s" s="13">
         <v>38</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="C14" t="s" s="14">
         <v>39</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="15">
         <v>0</v>
       </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" ht="44.05" customHeight="1">
-      <c r="A15" t="s" s="9">
+      <c r="A15" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="B15" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="C15" t="s" s="14">
         <v>42</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="15">
         <v>0</v>
       </c>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" ht="44.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+      <c r="A16" t="s" s="12">
         <v>43</v>
       </c>
-      <c r="B16" t="s" s="10">
+      <c r="B16" t="s" s="13">
         <v>44</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="C16" t="s" s="14">
         <v>45</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="15">
         <v>-1</v>
       </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" ht="44.05" customHeight="1">
-      <c r="A17" t="s" s="9">
+      <c r="A17" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="B17" t="s" s="10">
+      <c r="B17" t="s" s="13">
         <v>47</v>
       </c>
-      <c r="C17" t="s" s="11">
+      <c r="C17" t="s" s="14">
         <v>48</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="15">
         <v>0</v>
       </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" ht="44.05" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="A18" t="s" s="12">
         <v>49</v>
       </c>
-      <c r="B18" t="s" s="10">
+      <c r="B18" t="s" s="13">
         <v>50</v>
       </c>
-      <c r="C18" t="s" s="11">
+      <c r="C18" t="s" s="14">
         <v>51</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="15">
         <v>-1</v>
       </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" ht="44.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="A19" t="s" s="12">
         <v>52</v>
       </c>
-      <c r="B19" t="s" s="10">
+      <c r="B19" t="s" s="13">
         <v>53</v>
       </c>
-      <c r="C19" t="s" s="11">
+      <c r="C19" t="s" s="14">
         <v>54</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="15">
         <v>-1</v>
       </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" ht="44.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+      <c r="A20" t="s" s="12">
         <v>55</v>
       </c>
-      <c r="B20" t="s" s="10">
+      <c r="B20" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="C20" t="s" s="11">
+      <c r="C20" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" ht="44.05" customHeight="1">
+      <c r="A21" t="s" s="12">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s" s="13">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="D21" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" ht="44.05" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" ht="44.05" customHeight="1">
+      <c r="A22" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s" s="13">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s" s="14">
+        <v>63</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" ht="44.05" customHeight="1">
+      <c r="A23" t="s" s="12">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s" s="13">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" ht="44.05" customHeight="1">
+      <c r="A24" t="s" s="12">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s" s="13">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s" s="14">
+        <v>69</v>
+      </c>
+      <c r="D24" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" ht="44.05" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" ht="44.05" customHeight="1">
+      <c r="A25" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s" s="13">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="D25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" ht="44.05" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="C23" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" ht="44.05" customHeight="1">
+      <c r="A26" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s" s="13">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s" s="14">
+        <v>75</v>
+      </c>
+      <c r="D26" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" ht="44.05" customHeight="1">
+      <c r="A27" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s" s="13">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s" s="14">
+        <v>78</v>
+      </c>
+      <c r="D27" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" ht="44.05" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s" s="11">
-        <v>69</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" ht="44.05" customHeight="1">
+      <c r="A28" t="s" s="12">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s" s="13">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s" s="14">
+        <v>81</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" ht="44.05" customHeight="1">
+      <c r="A29" t="s" s="12">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s" s="13">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s" s="14">
+        <v>84</v>
+      </c>
+      <c r="D29" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" ht="44.05" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>70</v>
-      </c>
-      <c r="B25" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="C25" t="s" s="11">
-        <v>72</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" ht="44.05" customHeight="1">
+      <c r="A30" t="s" s="12">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s" s="13">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" ht="44.05" customHeight="1">
+      <c r="A31" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s" s="13">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s" s="14">
+        <v>90</v>
+      </c>
+      <c r="D31" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" ht="44.05" customHeight="1">
+      <c r="A32" t="s" s="12">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s" s="13">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" ht="44.05" customHeight="1">
+      <c r="A33" t="s" s="12">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s" s="13">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s" s="14">
+        <v>96</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" ht="44.05" customHeight="1">
+      <c r="A34" t="s" s="12">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s" s="13">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s" s="14">
+        <v>99</v>
+      </c>
+      <c r="D34" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" ht="44.05" customHeight="1">
+      <c r="A35" t="s" s="12">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s" s="13">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s" s="14">
+        <v>102</v>
+      </c>
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" ht="44.05" customHeight="1">
+      <c r="A36" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s" s="13">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s" s="14">
+        <v>105</v>
+      </c>
+      <c r="D36" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" ht="44.05" customHeight="1">
+      <c r="A37" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s" s="13">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s" s="14">
+        <v>108</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" ht="44.05" customHeight="1">
+      <c r="A38" t="s" s="12">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s" s="13">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s" s="14">
+        <v>111</v>
+      </c>
+      <c r="D38" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" ht="44.05" customHeight="1">
+      <c r="A39" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s" s="13">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s" s="14">
+        <v>114</v>
+      </c>
+      <c r="D39" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" ht="44.05" customHeight="1">
+      <c r="A40" t="s" s="12">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s" s="13">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s" s="14">
+        <v>117</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" ht="44.05" customHeight="1">
+      <c r="A41" t="s" s="12">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s" s="13">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s" s="14">
+        <v>120</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" ht="44.05" customHeight="1">
+      <c r="A42" t="s" s="12">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s" s="13">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s" s="14">
+        <v>123</v>
+      </c>
+      <c r="D42" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" ht="44.05" customHeight="1">
-      <c r="A26" t="s" s="9">
-        <v>73</v>
-      </c>
-      <c r="B26" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="C26" t="s" s="11">
-        <v>75</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" ht="44.05" customHeight="1">
+      <c r="A43" t="s" s="12">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s" s="13">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s" s="14">
+        <v>126</v>
+      </c>
+      <c r="D43" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" ht="44.05" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>76</v>
-      </c>
-      <c r="B27" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s" s="11">
-        <v>78</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" ht="44.05" customHeight="1">
+      <c r="A44" t="s" s="12">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s" s="13">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s" s="14">
+        <v>129</v>
+      </c>
+      <c r="D44" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" ht="44.05" customHeight="1">
-      <c r="A28" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="B28" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" ht="44.05" customHeight="1">
+      <c r="A45" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s" s="13">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s" s="14">
+        <v>132</v>
+      </c>
+      <c r="D45" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" ht="44.05" customHeight="1">
+      <c r="A46" t="s" s="12">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s" s="13">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s" s="14">
+        <v>135</v>
+      </c>
+      <c r="D46" s="15">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" ht="44.05" customHeight="1">
+      <c r="A47" t="s" s="12">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s" s="13">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s" s="14">
+        <v>138</v>
+      </c>
+      <c r="D47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" ht="44.05" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>82</v>
-      </c>
-      <c r="B29" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="C29" t="s" s="11">
-        <v>84</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" ht="44.05" customHeight="1">
+      <c r="A48" t="s" s="12">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s" s="13">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s" s="14">
+        <v>141</v>
+      </c>
+      <c r="D48" s="15">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" ht="44.05" customHeight="1">
+      <c r="A49" t="s" s="12">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s" s="13">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s" s="14">
+        <v>144</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" ht="44.05" customHeight="1">
+      <c r="A50" t="s" s="12">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s" s="13">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s" s="14">
+        <v>147</v>
+      </c>
+      <c r="D50" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="30" ht="44.05" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s" s="10">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" ht="44.05" customHeight="1">
+      <c r="A51" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s" s="13">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s" s="14">
+        <v>150</v>
+      </c>
+      <c r="D51" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" ht="44.05" customHeight="1">
+      <c r="A52" t="s" s="12">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s" s="13">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s" s="14">
+        <v>153</v>
+      </c>
+      <c r="D52" s="15">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" ht="44.05" customHeight="1">
+      <c r="A53" t="s" s="12">
+        <v>154</v>
+      </c>
+      <c r="B53" t="s" s="13">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s" s="14">
+        <v>156</v>
+      </c>
+      <c r="D53" s="15">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" ht="44.05" customHeight="1">
+      <c r="A54" t="s" s="12">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s" s="13">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s" s="14">
+        <v>159</v>
+      </c>
+      <c r="D54" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" ht="44.05" customHeight="1">
+      <c r="A55" t="s" s="12">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s" s="13">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s" s="14">
+        <v>162</v>
+      </c>
+      <c r="D55" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" ht="44.05" customHeight="1">
-      <c r="A31" t="s" s="9">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s" s="11">
-        <v>90</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" ht="44.05" customHeight="1">
+      <c r="A56" t="s" s="12">
+        <v>163</v>
+      </c>
+      <c r="B56" t="s" s="13">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s" s="14">
+        <v>165</v>
+      </c>
+      <c r="D56" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" ht="44.05" customHeight="1">
-      <c r="A32" t="s" s="9">
-        <v>91</v>
-      </c>
-      <c r="B32" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="C32" t="s" s="11">
-        <v>93</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" ht="44.05" customHeight="1">
+      <c r="A57" t="s" s="12">
+        <v>166</v>
+      </c>
+      <c r="B57" t="s" s="13">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s" s="14">
+        <v>168</v>
+      </c>
+      <c r="D57" s="15">
+        <v>0</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" ht="44.05" customHeight="1">
+      <c r="A58" t="s" s="12">
+        <v>169</v>
+      </c>
+      <c r="B58" t="s" s="13">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s" s="14">
+        <v>171</v>
+      </c>
+      <c r="D58" s="15">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" ht="44.05" customHeight="1">
+      <c r="A59" t="s" s="12">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s" s="13">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s" s="14">
+        <v>174</v>
+      </c>
+      <c r="D59" s="15">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" ht="44.05" customHeight="1">
+      <c r="A60" t="s" s="12">
+        <v>175</v>
+      </c>
+      <c r="B60" t="s" s="13">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s" s="14">
+        <v>177</v>
+      </c>
+      <c r="D60" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" ht="44.05" customHeight="1">
-      <c r="A33" t="s" s="9">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s" s="11">
-        <v>96</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" ht="44.05" customHeight="1">
+      <c r="A61" t="s" s="12">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s" s="13">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s" s="14">
+        <v>180</v>
+      </c>
+      <c r="D61" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" ht="44.05" customHeight="1">
-      <c r="A34" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="C34" t="s" s="11">
-        <v>99</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" ht="44.05" customHeight="1">
+      <c r="A62" t="s" s="12">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s" s="13">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s" s="14">
+        <v>183</v>
+      </c>
+      <c r="D62" s="15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="35" ht="44.05" customHeight="1">
-      <c r="A35" t="s" s="9">
-        <v>100</v>
-      </c>
-      <c r="B35" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="C35" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="44.05" customHeight="1">
-      <c r="A36" t="s" s="9">
-        <v>103</v>
-      </c>
-      <c r="B36" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="C36" t="s" s="11">
-        <v>105</v>
-      </c>
-      <c r="D36" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" ht="44.05" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s" s="11">
-        <v>108</v>
-      </c>
-      <c r="D37" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" ht="44.05" customHeight="1">
-      <c r="A38" t="s" s="9">
-        <v>109</v>
-      </c>
-      <c r="B38" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="C38" t="s" s="11">
-        <v>111</v>
-      </c>
-      <c r="D38" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" ht="44.05" customHeight="1">
-      <c r="A39" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="B39" t="s" s="10">
-        <v>113</v>
-      </c>
-      <c r="C39" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="D39" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" ht="44.05" customHeight="1">
-      <c r="A40" t="s" s="9">
-        <v>115</v>
-      </c>
-      <c r="B40" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="C40" t="s" s="11">
-        <v>117</v>
-      </c>
-      <c r="D40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="44.05" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>118</v>
-      </c>
-      <c r="B41" t="s" s="10">
-        <v>119</v>
-      </c>
-      <c r="C41" t="s" s="11">
-        <v>120</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" ht="44.05" customHeight="1">
-      <c r="A42" t="s" s="9">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="C42" t="s" s="11">
-        <v>123</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="44.05" customHeight="1">
-      <c r="A43" t="s" s="9">
-        <v>124</v>
-      </c>
-      <c r="B43" t="s" s="10">
-        <v>125</v>
-      </c>
-      <c r="C43" t="s" s="11">
-        <v>126</v>
-      </c>
-      <c r="D43" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" ht="44.05" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>127</v>
-      </c>
-      <c r="B44" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="C44" t="s" s="11">
-        <v>129</v>
-      </c>
-      <c r="D44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="44.05" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="C45" t="s" s="11">
-        <v>132</v>
-      </c>
-      <c r="D45" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" ht="44.05" customHeight="1">
-      <c r="A46" t="s" s="9">
-        <v>133</v>
-      </c>
-      <c r="B46" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="C46" t="s" s="11">
-        <v>135</v>
-      </c>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" ht="44.05" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>136</v>
-      </c>
-      <c r="B47" t="s" s="10">
-        <v>137</v>
-      </c>
-      <c r="C47" t="s" s="11">
-        <v>138</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="44.05" customHeight="1">
-      <c r="A48" t="s" s="9">
-        <v>139</v>
-      </c>
-      <c r="B48" t="s" s="10">
-        <v>140</v>
-      </c>
-      <c r="C48" t="s" s="11">
-        <v>141</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="44.05" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>142</v>
-      </c>
-      <c r="B49" t="s" s="10">
-        <v>143</v>
-      </c>
-      <c r="C49" t="s" s="11">
-        <v>144</v>
-      </c>
-      <c r="D49" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" ht="44.05" customHeight="1">
-      <c r="A50" t="s" s="9">
-        <v>145</v>
-      </c>
-      <c r="B50" t="s" s="10">
-        <v>146</v>
-      </c>
-      <c r="C50" t="s" s="11">
-        <v>147</v>
-      </c>
-      <c r="D50" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" ht="44.05" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>148</v>
-      </c>
-      <c r="B51" t="s" s="10">
-        <v>149</v>
-      </c>
-      <c r="C51" t="s" s="11">
-        <v>150</v>
-      </c>
-      <c r="D51" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" ht="44.05" customHeight="1">
-      <c r="A52" t="s" s="9">
-        <v>151</v>
-      </c>
-      <c r="B52" t="s" s="10">
-        <v>152</v>
-      </c>
-      <c r="C52" t="s" s="11">
-        <v>153</v>
-      </c>
-      <c r="D52" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="44.05" customHeight="1">
-      <c r="A53" t="s" s="9">
-        <v>154</v>
-      </c>
-      <c r="B53" t="s" s="10">
-        <v>155</v>
-      </c>
-      <c r="C53" t="s" s="11">
-        <v>156</v>
-      </c>
-      <c r="D53" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="44.05" customHeight="1">
-      <c r="A54" t="s" s="9">
-        <v>157</v>
-      </c>
-      <c r="B54" t="s" s="10">
-        <v>158</v>
-      </c>
-      <c r="C54" t="s" s="11">
-        <v>159</v>
-      </c>
-      <c r="D54" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" ht="44.05" customHeight="1">
-      <c r="A55" t="s" s="9">
-        <v>160</v>
-      </c>
-      <c r="B55" t="s" s="10">
-        <v>161</v>
-      </c>
-      <c r="C55" t="s" s="11">
-        <v>162</v>
-      </c>
-      <c r="D55" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="44.05" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>163</v>
-      </c>
-      <c r="B56" t="s" s="10">
-        <v>164</v>
-      </c>
-      <c r="C56" t="s" s="11">
-        <v>165</v>
-      </c>
-      <c r="D56" s="12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" ht="44.05" customHeight="1">
-      <c r="A57" t="s" s="9">
-        <v>166</v>
-      </c>
-      <c r="B57" t="s" s="10">
-        <v>167</v>
-      </c>
-      <c r="C57" t="s" s="11">
-        <v>168</v>
-      </c>
-      <c r="D57" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="44.05" customHeight="1">
-      <c r="A58" t="s" s="9">
-        <v>169</v>
-      </c>
-      <c r="B58" t="s" s="10">
-        <v>170</v>
-      </c>
-      <c r="C58" t="s" s="11">
-        <v>171</v>
-      </c>
-      <c r="D58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="44.05" customHeight="1">
-      <c r="A59" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="B59" t="s" s="10">
-        <v>173</v>
-      </c>
-      <c r="C59" t="s" s="11">
-        <v>174</v>
-      </c>
-      <c r="D59" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="44.05" customHeight="1">
-      <c r="A60" t="s" s="9">
-        <v>175</v>
-      </c>
-      <c r="B60" t="s" s="10">
-        <v>176</v>
-      </c>
-      <c r="C60" t="s" s="11">
-        <v>177</v>
-      </c>
-      <c r="D60" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" ht="44.05" customHeight="1">
-      <c r="A61" t="s" s="9">
-        <v>178</v>
-      </c>
-      <c r="B61" t="s" s="10">
-        <v>179</v>
-      </c>
-      <c r="C61" t="s" s="11">
-        <v>180</v>
-      </c>
-      <c r="D61" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" ht="44.05" customHeight="1">
-      <c r="A62" t="s" s="9">
-        <v>181</v>
-      </c>
-      <c r="B62" t="s" s="10">
-        <v>182</v>
-      </c>
-      <c r="C62" t="s" s="11">
-        <v>183</v>
-      </c>
-      <c r="D62" s="12">
-        <v>-1</v>
-      </c>
+      <c r="E62" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
